--- a/sample.xlsx
+++ b/sample.xlsx
@@ -525,7 +525,7 @@
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>G90</t>
+          <t>G90G54G92</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -556,7 +556,11 @@
       <c r="Q2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -579,7 +583,11 @@
       <c r="Q3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>/1</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -51,15 +51,77 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -434,520 +496,995 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>名称</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="B1" s="3" t="n"/>
+      <c r="C1" s="3" t="n"/>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>注釈</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="2" t="inlineStr">
         <is>
           <t>日付</t>
         </is>
       </c>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="4" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="n"/>
+      <c r="E2" s="5" t="n"/>
+      <c r="N2" s="5" t="n"/>
+      <c r="Q2" s="6" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>プログラム番号</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="B3" s="3" t="n"/>
+      <c r="C3" s="3" t="n"/>
+      <c r="D3" s="3" t="n"/>
+      <c r="E3" s="5" t="n"/>
+      <c r="N3" s="2" t="inlineStr">
         <is>
           <t>作成者</t>
         </is>
       </c>
+      <c r="O3" s="3" t="n"/>
+      <c r="P3" s="3" t="n"/>
+      <c r="Q3" s="4" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="n"/>
+      <c r="E4" s="5" t="n"/>
+      <c r="N4" s="5" t="n"/>
+      <c r="Q4" s="6" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" s="7" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B5" s="7" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C5" s="7" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="D5" s="1" t="inlineStr">
+      <c r="D5" s="7" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="E5" s="1" t="inlineStr">
+      <c r="E5" s="7" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="F5" s="7" t="inlineStr">
         <is>
           <t>Z</t>
         </is>
       </c>
-      <c r="G5" s="1" t="inlineStr">
+      <c r="G5" s="7" t="inlineStr">
         <is>
           <t>R/I</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr">
+      <c r="H5" s="7" t="inlineStr">
         <is>
           <t>J</t>
         </is>
       </c>
-      <c r="I5" s="1" t="inlineStr">
+      <c r="I5" s="7" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="J5" s="1" t="inlineStr">
+      <c r="J5" s="7" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="K5" s="1" t="inlineStr">
+      <c r="K5" s="7" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="L5" s="1" t="inlineStr">
+      <c r="L5" s="7" t="inlineStr">
         <is>
           <t>T</t>
         </is>
       </c>
-      <c r="M5" s="1" t="inlineStr">
+      <c r="M5" s="7" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="N5" s="1" t="inlineStr">
+      <c r="N5" s="7" t="inlineStr">
         <is>
           <t>H/D</t>
         </is>
       </c>
-      <c r="O5" s="1" t="inlineStr">
+      <c r="O5" s="7" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="P5" s="1" t="inlineStr">
+      <c r="P5" s="7" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="Q5" s="1" t="inlineStr">
+      <c r="Q5" s="7" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="C6" t="inlineStr">
+      <c r="A6" s="8" t="inlineStr"/>
+      <c r="B6" s="8" t="inlineStr"/>
+      <c r="C6" s="8" t="inlineStr">
         <is>
           <t>G90G54G92</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" s="8" t="inlineStr">
         <is>
           <t>X0</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" s="8" t="inlineStr">
         <is>
           <t>Y0</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" s="8" t="inlineStr">
         <is>
           <t>Z10.</t>
         </is>
       </c>
+      <c r="G6" s="8" t="inlineStr"/>
+      <c r="H6" s="8" t="inlineStr"/>
+      <c r="I6" s="8" t="inlineStr"/>
+      <c r="J6" s="8" t="inlineStr"/>
+      <c r="K6" s="8" t="inlineStr"/>
+      <c r="L6" s="8" t="inlineStr"/>
+      <c r="M6" s="8" t="inlineStr"/>
+      <c r="N6" s="8" t="inlineStr"/>
+      <c r="O6" s="8" t="inlineStr"/>
+      <c r="P6" s="8" t="inlineStr"/>
+      <c r="Q6" s="8" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="8" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="B7" s="8" t="inlineStr"/>
+      <c r="C7" s="8" t="inlineStr"/>
+      <c r="D7" s="8" t="inlineStr"/>
+      <c r="E7" s="8" t="inlineStr"/>
+      <c r="F7" s="8" t="inlineStr"/>
+      <c r="G7" s="8" t="inlineStr"/>
+      <c r="H7" s="8" t="inlineStr"/>
+      <c r="I7" s="8" t="inlineStr"/>
+      <c r="J7" s="8" t="inlineStr"/>
+      <c r="K7" s="8" t="inlineStr"/>
+      <c r="L7" s="8" t="inlineStr"/>
+      <c r="M7" s="8" t="inlineStr">
         <is>
           <t>M8</t>
         </is>
       </c>
+      <c r="N7" s="8" t="inlineStr"/>
+      <c r="O7" s="8" t="inlineStr"/>
+      <c r="P7" s="8" t="inlineStr"/>
+      <c r="Q7" s="8" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="8" t="inlineStr">
         <is>
           <t>/1</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="B8" s="8" t="inlineStr"/>
+      <c r="C8" s="8" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr"/>
+      <c r="E8" s="8" t="inlineStr"/>
+      <c r="F8" s="8" t="inlineStr"/>
+      <c r="G8" s="8" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr"/>
+      <c r="I8" s="8" t="inlineStr"/>
+      <c r="J8" s="8" t="inlineStr"/>
+      <c r="K8" s="8" t="inlineStr"/>
+      <c r="L8" s="8" t="inlineStr"/>
+      <c r="M8" s="8" t="inlineStr">
         <is>
           <t>M68</t>
         </is>
       </c>
+      <c r="N8" s="8" t="inlineStr"/>
+      <c r="O8" s="8" t="inlineStr"/>
+      <c r="P8" s="8" t="inlineStr"/>
+      <c r="Q8" s="8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="K9" t="inlineStr">
+      <c r="A9" s="8" t="inlineStr"/>
+      <c r="B9" s="8" t="inlineStr"/>
+      <c r="C9" s="8" t="inlineStr"/>
+      <c r="D9" s="8" t="inlineStr"/>
+      <c r="E9" s="8" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr"/>
+      <c r="J9" s="8" t="inlineStr"/>
+      <c r="K9" s="8" t="inlineStr">
         <is>
           <t>S5000</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="L9" s="8" t="inlineStr"/>
+      <c r="M9" s="8" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
+      <c r="N9" s="8" t="inlineStr"/>
+      <c r="O9" s="8" t="inlineStr"/>
+      <c r="P9" s="8" t="inlineStr"/>
+      <c r="Q9" s="8" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="C10" t="inlineStr">
+      <c r="A10" s="8" t="inlineStr"/>
+      <c r="B10" s="8" t="inlineStr"/>
+      <c r="C10" s="8" t="inlineStr">
         <is>
           <t>G00</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D10" s="8" t="inlineStr">
         <is>
           <t>X-115.816</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E10" s="8" t="inlineStr">
         <is>
           <t>Y28.5066</t>
         </is>
       </c>
+      <c r="F10" s="8" t="inlineStr"/>
+      <c r="G10" s="8" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr"/>
+      <c r="I10" s="8" t="inlineStr"/>
+      <c r="J10" s="8" t="inlineStr"/>
+      <c r="K10" s="8" t="inlineStr"/>
+      <c r="L10" s="8" t="inlineStr"/>
+      <c r="M10" s="8" t="inlineStr"/>
+      <c r="N10" s="8" t="inlineStr"/>
+      <c r="O10" s="8" t="inlineStr"/>
+      <c r="P10" s="8" t="inlineStr"/>
+      <c r="Q10" s="8" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="F11" t="inlineStr">
+      <c r="A11" s="8" t="inlineStr"/>
+      <c r="B11" s="8" t="inlineStr"/>
+      <c r="C11" s="8" t="inlineStr"/>
+      <c r="D11" s="8" t="inlineStr"/>
+      <c r="E11" s="8" t="inlineStr"/>
+      <c r="F11" s="8" t="inlineStr">
         <is>
           <t>Z1.</t>
         </is>
       </c>
+      <c r="G11" s="8" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr"/>
+      <c r="I11" s="8" t="inlineStr"/>
+      <c r="J11" s="8" t="inlineStr"/>
+      <c r="K11" s="8" t="inlineStr"/>
+      <c r="L11" s="8" t="inlineStr"/>
+      <c r="M11" s="8" t="inlineStr"/>
+      <c r="N11" s="8" t="inlineStr"/>
+      <c r="O11" s="8" t="inlineStr"/>
+      <c r="P11" s="8" t="inlineStr"/>
+      <c r="Q11" s="8" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="C12" t="inlineStr">
+      <c r="A12" s="8" t="inlineStr"/>
+      <c r="B12" s="8" t="inlineStr"/>
+      <c r="C12" s="8" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="D12" s="8" t="inlineStr"/>
+      <c r="E12" s="8" t="inlineStr"/>
+      <c r="F12" s="8" t="inlineStr">
         <is>
           <t>Z-1.</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="G12" s="8" t="inlineStr"/>
+      <c r="H12" s="8" t="inlineStr"/>
+      <c r="I12" s="8" t="inlineStr"/>
+      <c r="J12" s="8" t="inlineStr">
         <is>
           <t>F100</t>
         </is>
       </c>
+      <c r="K12" s="8" t="inlineStr"/>
+      <c r="L12" s="8" t="inlineStr"/>
+      <c r="M12" s="8" t="inlineStr"/>
+      <c r="N12" s="8" t="inlineStr"/>
+      <c r="O12" s="8" t="inlineStr"/>
+      <c r="P12" s="8" t="inlineStr"/>
+      <c r="Q12" s="8" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="D13" t="inlineStr">
+      <c r="A13" s="8" t="inlineStr"/>
+      <c r="B13" s="8" t="inlineStr"/>
+      <c r="C13" s="8" t="inlineStr"/>
+      <c r="D13" s="8" t="inlineStr">
         <is>
           <t>X-47.7713</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E13" s="8" t="inlineStr">
         <is>
           <t>Y44.9312</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="F13" s="8" t="inlineStr"/>
+      <c r="G13" s="8" t="inlineStr"/>
+      <c r="H13" s="8" t="inlineStr"/>
+      <c r="I13" s="8" t="inlineStr"/>
+      <c r="J13" s="8" t="inlineStr">
         <is>
           <t>F300</t>
         </is>
       </c>
+      <c r="K13" s="8" t="inlineStr"/>
+      <c r="L13" s="8" t="inlineStr"/>
+      <c r="M13" s="8" t="inlineStr"/>
+      <c r="N13" s="8" t="inlineStr"/>
+      <c r="O13" s="8" t="inlineStr"/>
+      <c r="P13" s="8" t="inlineStr"/>
+      <c r="Q13" s="8" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="D14" t="inlineStr">
+      <c r="A14" s="8" t="inlineStr"/>
+      <c r="B14" s="8" t="inlineStr"/>
+      <c r="C14" s="8" t="inlineStr"/>
+      <c r="D14" s="8" t="inlineStr">
         <is>
           <t>X-1.6261</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E14" s="8" t="inlineStr">
         <is>
           <t>Y20.2943</t>
         </is>
       </c>
+      <c r="F14" s="8" t="inlineStr"/>
+      <c r="G14" s="8" t="inlineStr"/>
+      <c r="H14" s="8" t="inlineStr"/>
+      <c r="I14" s="8" t="inlineStr"/>
+      <c r="J14" s="8" t="inlineStr"/>
+      <c r="K14" s="8" t="inlineStr"/>
+      <c r="L14" s="8" t="inlineStr"/>
+      <c r="M14" s="8" t="inlineStr"/>
+      <c r="N14" s="8" t="inlineStr"/>
+      <c r="O14" s="8" t="inlineStr"/>
+      <c r="P14" s="8" t="inlineStr"/>
+      <c r="Q14" s="8" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="D15" t="inlineStr">
+      <c r="A15" s="8" t="inlineStr"/>
+      <c r="B15" s="8" t="inlineStr"/>
+      <c r="C15" s="8" t="inlineStr"/>
+      <c r="D15" s="8" t="inlineStr">
         <is>
           <t>X50.7762</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E15" s="8" t="inlineStr">
         <is>
           <t>Y45.3222</t>
         </is>
       </c>
+      <c r="F15" s="8" t="inlineStr"/>
+      <c r="G15" s="8" t="inlineStr"/>
+      <c r="H15" s="8" t="inlineStr"/>
+      <c r="I15" s="8" t="inlineStr"/>
+      <c r="J15" s="8" t="inlineStr"/>
+      <c r="K15" s="8" t="inlineStr"/>
+      <c r="L15" s="8" t="inlineStr"/>
+      <c r="M15" s="8" t="inlineStr"/>
+      <c r="N15" s="8" t="inlineStr"/>
+      <c r="O15" s="8" t="inlineStr"/>
+      <c r="P15" s="8" t="inlineStr"/>
+      <c r="Q15" s="8" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="D16" t="inlineStr">
+      <c r="A16" s="8" t="inlineStr"/>
+      <c r="B16" s="8" t="inlineStr"/>
+      <c r="C16" s="8" t="inlineStr"/>
+      <c r="D16" s="8" t="inlineStr">
         <is>
           <t>X110.6086</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E16" s="8" t="inlineStr">
         <is>
           <t>Y15.9926</t>
         </is>
       </c>
+      <c r="F16" s="8" t="inlineStr"/>
+      <c r="G16" s="8" t="inlineStr"/>
+      <c r="H16" s="8" t="inlineStr"/>
+      <c r="I16" s="8" t="inlineStr"/>
+      <c r="J16" s="8" t="inlineStr"/>
+      <c r="K16" s="8" t="inlineStr"/>
+      <c r="L16" s="8" t="inlineStr"/>
+      <c r="M16" s="8" t="inlineStr"/>
+      <c r="N16" s="8" t="inlineStr"/>
+      <c r="O16" s="8" t="inlineStr"/>
+      <c r="P16" s="8" t="inlineStr"/>
+      <c r="Q16" s="8" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="C17" t="inlineStr">
+      <c r="A17" s="8" t="inlineStr"/>
+      <c r="B17" s="8" t="inlineStr"/>
+      <c r="C17" s="8" t="inlineStr">
         <is>
           <t>G00</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="D17" s="8" t="inlineStr"/>
+      <c r="E17" s="8" t="inlineStr"/>
+      <c r="F17" s="8" t="inlineStr">
         <is>
           <t>Z1.</t>
         </is>
       </c>
+      <c r="G17" s="8" t="inlineStr"/>
+      <c r="H17" s="8" t="inlineStr"/>
+      <c r="I17" s="8" t="inlineStr"/>
+      <c r="J17" s="8" t="inlineStr"/>
+      <c r="K17" s="8" t="inlineStr"/>
+      <c r="L17" s="8" t="inlineStr"/>
+      <c r="M17" s="8" t="inlineStr"/>
+      <c r="N17" s="8" t="inlineStr"/>
+      <c r="O17" s="8" t="inlineStr"/>
+      <c r="P17" s="8" t="inlineStr"/>
+      <c r="Q17" s="8" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="E18" t="inlineStr">
+      <c r="A18" s="8" t="inlineStr"/>
+      <c r="B18" s="8" t="inlineStr"/>
+      <c r="C18" s="8" t="inlineStr"/>
+      <c r="D18" s="8" t="inlineStr"/>
+      <c r="E18" s="8" t="inlineStr">
         <is>
           <t>Y-64.5661</t>
         </is>
       </c>
+      <c r="F18" s="8" t="inlineStr"/>
+      <c r="G18" s="8" t="inlineStr"/>
+      <c r="H18" s="8" t="inlineStr"/>
+      <c r="I18" s="8" t="inlineStr"/>
+      <c r="J18" s="8" t="inlineStr"/>
+      <c r="K18" s="8" t="inlineStr"/>
+      <c r="L18" s="8" t="inlineStr"/>
+      <c r="M18" s="8" t="inlineStr"/>
+      <c r="N18" s="8" t="inlineStr"/>
+      <c r="O18" s="8" t="inlineStr"/>
+      <c r="P18" s="8" t="inlineStr"/>
+      <c r="Q18" s="8" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="D19" t="inlineStr">
+      <c r="A19" s="8" t="inlineStr"/>
+      <c r="B19" s="8" t="inlineStr"/>
+      <c r="C19" s="8" t="inlineStr"/>
+      <c r="D19" s="8" t="inlineStr">
         <is>
           <t>X163.5069</t>
         </is>
       </c>
+      <c r="E19" s="8" t="inlineStr"/>
+      <c r="F19" s="8" t="inlineStr"/>
+      <c r="G19" s="8" t="inlineStr"/>
+      <c r="H19" s="8" t="inlineStr"/>
+      <c r="I19" s="8" t="inlineStr"/>
+      <c r="J19" s="8" t="inlineStr"/>
+      <c r="K19" s="8" t="inlineStr"/>
+      <c r="L19" s="8" t="inlineStr"/>
+      <c r="M19" s="8" t="inlineStr"/>
+      <c r="N19" s="8" t="inlineStr"/>
+      <c r="O19" s="8" t="inlineStr"/>
+      <c r="P19" s="8" t="inlineStr"/>
+      <c r="Q19" s="8" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="D20" t="inlineStr">
+      <c r="A20" s="8" t="inlineStr"/>
+      <c r="B20" s="8" t="inlineStr"/>
+      <c r="C20" s="8" t="inlineStr"/>
+      <c r="D20" s="8" t="inlineStr">
         <is>
           <t>X55.7762</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E20" s="8" t="inlineStr">
         <is>
           <t>Y45.3222</t>
         </is>
       </c>
+      <c r="F20" s="8" t="inlineStr"/>
+      <c r="G20" s="8" t="inlineStr"/>
+      <c r="H20" s="8" t="inlineStr"/>
+      <c r="I20" s="8" t="inlineStr"/>
+      <c r="J20" s="8" t="inlineStr"/>
+      <c r="K20" s="8" t="inlineStr"/>
+      <c r="L20" s="8" t="inlineStr"/>
+      <c r="M20" s="8" t="inlineStr"/>
+      <c r="N20" s="8" t="inlineStr"/>
+      <c r="O20" s="8" t="inlineStr"/>
+      <c r="P20" s="8" t="inlineStr"/>
+      <c r="Q20" s="8" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="C21" t="inlineStr">
+      <c r="A21" s="8" t="inlineStr"/>
+      <c r="B21" s="8" t="inlineStr"/>
+      <c r="C21" s="8" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="D21" s="8" t="inlineStr"/>
+      <c r="E21" s="8" t="inlineStr"/>
+      <c r="F21" s="8" t="inlineStr">
         <is>
           <t>Z-1.</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="G21" s="8" t="inlineStr"/>
+      <c r="H21" s="8" t="inlineStr"/>
+      <c r="I21" s="8" t="inlineStr"/>
+      <c r="J21" s="8" t="inlineStr">
         <is>
           <t>F100</t>
         </is>
       </c>
+      <c r="K21" s="8" t="inlineStr"/>
+      <c r="L21" s="8" t="inlineStr"/>
+      <c r="M21" s="8" t="inlineStr"/>
+      <c r="N21" s="8" t="inlineStr"/>
+      <c r="O21" s="8" t="inlineStr"/>
+      <c r="P21" s="8" t="inlineStr"/>
+      <c r="Q21" s="8" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="C22" t="inlineStr">
+      <c r="A22" s="8" t="inlineStr"/>
+      <c r="B22" s="8" t="inlineStr"/>
+      <c r="C22" s="8" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="D22" s="8" t="inlineStr"/>
+      <c r="E22" s="8" t="inlineStr"/>
+      <c r="F22" s="8" t="inlineStr"/>
+      <c r="G22" s="8" t="inlineStr">
         <is>
           <t>I-5.</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="H22" s="8" t="inlineStr">
         <is>
           <t>J0</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="I22" s="8" t="inlineStr"/>
+      <c r="J22" s="8" t="inlineStr">
         <is>
           <t>F300</t>
         </is>
       </c>
+      <c r="K22" s="8" t="inlineStr"/>
+      <c r="L22" s="8" t="inlineStr"/>
+      <c r="M22" s="8" t="inlineStr"/>
+      <c r="N22" s="8" t="inlineStr"/>
+      <c r="O22" s="8" t="inlineStr"/>
+      <c r="P22" s="8" t="inlineStr"/>
+      <c r="Q22" s="8" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="C23" t="inlineStr">
+      <c r="A23" s="8" t="inlineStr"/>
+      <c r="B23" s="8" t="inlineStr"/>
+      <c r="C23" s="8" t="inlineStr">
         <is>
           <t>G00</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="D23" s="8" t="inlineStr"/>
+      <c r="E23" s="8" t="inlineStr"/>
+      <c r="F23" s="8" t="inlineStr">
         <is>
           <t>Z1.</t>
         </is>
       </c>
+      <c r="G23" s="8" t="inlineStr"/>
+      <c r="H23" s="8" t="inlineStr"/>
+      <c r="I23" s="8" t="inlineStr"/>
+      <c r="J23" s="8" t="inlineStr"/>
+      <c r="K23" s="8" t="inlineStr"/>
+      <c r="L23" s="8" t="inlineStr"/>
+      <c r="M23" s="8" t="inlineStr"/>
+      <c r="N23" s="8" t="inlineStr"/>
+      <c r="O23" s="8" t="inlineStr"/>
+      <c r="P23" s="8" t="inlineStr"/>
+      <c r="Q23" s="8" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="D24" t="inlineStr">
+      <c r="A24" s="8" t="inlineStr"/>
+      <c r="B24" s="8" t="inlineStr"/>
+      <c r="C24" s="8" t="inlineStr"/>
+      <c r="D24" s="8" t="inlineStr">
         <is>
           <t>X3.3739</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E24" s="8" t="inlineStr">
         <is>
           <t>Y20.2943</t>
         </is>
       </c>
+      <c r="F24" s="8" t="inlineStr"/>
+      <c r="G24" s="8" t="inlineStr"/>
+      <c r="H24" s="8" t="inlineStr"/>
+      <c r="I24" s="8" t="inlineStr"/>
+      <c r="J24" s="8" t="inlineStr"/>
+      <c r="K24" s="8" t="inlineStr"/>
+      <c r="L24" s="8" t="inlineStr"/>
+      <c r="M24" s="8" t="inlineStr"/>
+      <c r="N24" s="8" t="inlineStr"/>
+      <c r="O24" s="8" t="inlineStr"/>
+      <c r="P24" s="8" t="inlineStr"/>
+      <c r="Q24" s="8" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="C25" t="inlineStr">
+      <c r="A25" s="8" t="inlineStr"/>
+      <c r="B25" s="8" t="inlineStr"/>
+      <c r="C25" s="8" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="D25" s="8" t="inlineStr"/>
+      <c r="E25" s="8" t="inlineStr"/>
+      <c r="F25" s="8" t="inlineStr">
         <is>
           <t>Z-1.</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="G25" s="8" t="inlineStr"/>
+      <c r="H25" s="8" t="inlineStr"/>
+      <c r="I25" s="8" t="inlineStr"/>
+      <c r="J25" s="8" t="inlineStr">
         <is>
           <t>F100</t>
         </is>
       </c>
+      <c r="K25" s="8" t="inlineStr"/>
+      <c r="L25" s="8" t="inlineStr"/>
+      <c r="M25" s="8" t="inlineStr"/>
+      <c r="N25" s="8" t="inlineStr"/>
+      <c r="O25" s="8" t="inlineStr"/>
+      <c r="P25" s="8" t="inlineStr"/>
+      <c r="Q25" s="8" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="C26" t="inlineStr">
+      <c r="A26" s="8" t="inlineStr"/>
+      <c r="B26" s="8" t="inlineStr"/>
+      <c r="C26" s="8" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="D26" s="8" t="inlineStr"/>
+      <c r="E26" s="8" t="inlineStr"/>
+      <c r="F26" s="8" t="inlineStr"/>
+      <c r="G26" s="8" t="inlineStr">
         <is>
           <t>I-5.</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="H26" s="8" t="inlineStr">
         <is>
           <t>J0</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="I26" s="8" t="inlineStr"/>
+      <c r="J26" s="8" t="inlineStr">
         <is>
           <t>F300</t>
         </is>
       </c>
+      <c r="K26" s="8" t="inlineStr"/>
+      <c r="L26" s="8" t="inlineStr"/>
+      <c r="M26" s="8" t="inlineStr"/>
+      <c r="N26" s="8" t="inlineStr"/>
+      <c r="O26" s="8" t="inlineStr"/>
+      <c r="P26" s="8" t="inlineStr"/>
+      <c r="Q26" s="8" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="C27" t="inlineStr">
+      <c r="A27" s="8" t="inlineStr"/>
+      <c r="B27" s="8" t="inlineStr"/>
+      <c r="C27" s="8" t="inlineStr">
         <is>
           <t>G00</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="D27" s="8" t="inlineStr"/>
+      <c r="E27" s="8" t="inlineStr"/>
+      <c r="F27" s="8" t="inlineStr">
         <is>
           <t>Z1.</t>
         </is>
       </c>
+      <c r="G27" s="8" t="inlineStr"/>
+      <c r="H27" s="8" t="inlineStr"/>
+      <c r="I27" s="8" t="inlineStr"/>
+      <c r="J27" s="8" t="inlineStr"/>
+      <c r="K27" s="8" t="inlineStr"/>
+      <c r="L27" s="8" t="inlineStr"/>
+      <c r="M27" s="8" t="inlineStr"/>
+      <c r="N27" s="8" t="inlineStr"/>
+      <c r="O27" s="8" t="inlineStr"/>
+      <c r="P27" s="8" t="inlineStr"/>
+      <c r="Q27" s="8" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="D28" t="inlineStr">
+      <c r="A28" s="8" t="inlineStr"/>
+      <c r="B28" s="8" t="inlineStr"/>
+      <c r="C28" s="8" t="inlineStr"/>
+      <c r="D28" s="8" t="inlineStr">
         <is>
           <t>X-42.7713</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="E28" s="8" t="inlineStr">
         <is>
           <t>Y44.9312</t>
         </is>
       </c>
+      <c r="F28" s="8" t="inlineStr"/>
+      <c r="G28" s="8" t="inlineStr"/>
+      <c r="H28" s="8" t="inlineStr"/>
+      <c r="I28" s="8" t="inlineStr"/>
+      <c r="J28" s="8" t="inlineStr"/>
+      <c r="K28" s="8" t="inlineStr"/>
+      <c r="L28" s="8" t="inlineStr"/>
+      <c r="M28" s="8" t="inlineStr"/>
+      <c r="N28" s="8" t="inlineStr"/>
+      <c r="O28" s="8" t="inlineStr"/>
+      <c r="P28" s="8" t="inlineStr"/>
+      <c r="Q28" s="8" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="C29" t="inlineStr">
+      <c r="A29" s="8" t="inlineStr"/>
+      <c r="B29" s="8" t="inlineStr"/>
+      <c r="C29" s="8" t="inlineStr">
         <is>
           <t>G01</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="D29" s="8" t="inlineStr"/>
+      <c r="E29" s="8" t="inlineStr"/>
+      <c r="F29" s="8" t="inlineStr">
         <is>
           <t>Z-1.</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="G29" s="8" t="inlineStr"/>
+      <c r="H29" s="8" t="inlineStr"/>
+      <c r="I29" s="8" t="inlineStr"/>
+      <c r="J29" s="8" t="inlineStr">
         <is>
           <t>F100</t>
         </is>
       </c>
+      <c r="K29" s="8" t="inlineStr"/>
+      <c r="L29" s="8" t="inlineStr"/>
+      <c r="M29" s="8" t="inlineStr"/>
+      <c r="N29" s="8" t="inlineStr"/>
+      <c r="O29" s="8" t="inlineStr"/>
+      <c r="P29" s="8" t="inlineStr"/>
+      <c r="Q29" s="8" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="C30" t="inlineStr">
+      <c r="A30" s="8" t="inlineStr"/>
+      <c r="B30" s="8" t="inlineStr"/>
+      <c r="C30" s="8" t="inlineStr">
         <is>
           <t>G02</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="D30" s="8" t="inlineStr"/>
+      <c r="E30" s="8" t="inlineStr"/>
+      <c r="F30" s="8" t="inlineStr"/>
+      <c r="G30" s="8" t="inlineStr">
         <is>
           <t>I-5.</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="H30" s="8" t="inlineStr">
         <is>
           <t>J0</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="I30" s="8" t="inlineStr"/>
+      <c r="J30" s="8" t="inlineStr">
         <is>
           <t>F300</t>
         </is>
       </c>
+      <c r="K30" s="8" t="inlineStr"/>
+      <c r="L30" s="8" t="inlineStr"/>
+      <c r="M30" s="8" t="inlineStr"/>
+      <c r="N30" s="8" t="inlineStr"/>
+      <c r="O30" s="8" t="inlineStr"/>
+      <c r="P30" s="8" t="inlineStr"/>
+      <c r="Q30" s="8" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="C31" t="inlineStr">
+      <c r="A31" s="8" t="inlineStr"/>
+      <c r="B31" s="8" t="inlineStr"/>
+      <c r="C31" s="8" t="inlineStr">
         <is>
           <t>G00</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="D31" s="8" t="inlineStr"/>
+      <c r="E31" s="8" t="inlineStr"/>
+      <c r="F31" s="8" t="inlineStr">
         <is>
           <t>Z10.</t>
         </is>
       </c>
+      <c r="G31" s="8" t="inlineStr"/>
+      <c r="H31" s="8" t="inlineStr"/>
+      <c r="I31" s="8" t="inlineStr"/>
+      <c r="J31" s="8" t="inlineStr"/>
+      <c r="K31" s="8" t="inlineStr"/>
+      <c r="L31" s="8" t="inlineStr"/>
+      <c r="M31" s="8" t="inlineStr"/>
+      <c r="N31" s="8" t="inlineStr"/>
+      <c r="O31" s="8" t="inlineStr"/>
+      <c r="P31" s="8" t="inlineStr"/>
+      <c r="Q31" s="8" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="M32" t="inlineStr">
+      <c r="A32" s="8" t="inlineStr"/>
+      <c r="B32" s="8" t="inlineStr"/>
+      <c r="C32" s="8" t="inlineStr"/>
+      <c r="D32" s="8" t="inlineStr"/>
+      <c r="E32" s="8" t="inlineStr"/>
+      <c r="F32" s="8" t="inlineStr"/>
+      <c r="G32" s="8" t="inlineStr"/>
+      <c r="H32" s="8" t="inlineStr"/>
+      <c r="I32" s="8" t="inlineStr"/>
+      <c r="J32" s="8" t="inlineStr"/>
+      <c r="K32" s="8" t="inlineStr"/>
+      <c r="L32" s="8" t="inlineStr"/>
+      <c r="M32" s="8" t="inlineStr">
         <is>
           <t>M9</t>
         </is>
       </c>
+      <c r="N32" s="8" t="inlineStr"/>
+      <c r="O32" s="8" t="inlineStr"/>
+      <c r="P32" s="8" t="inlineStr"/>
+      <c r="Q32" s="8" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="M33" t="inlineStr">
+      <c r="A33" s="8" t="inlineStr"/>
+      <c r="B33" s="8" t="inlineStr"/>
+      <c r="C33" s="8" t="inlineStr"/>
+      <c r="D33" s="8" t="inlineStr"/>
+      <c r="E33" s="8" t="inlineStr"/>
+      <c r="F33" s="8" t="inlineStr"/>
+      <c r="G33" s="8" t="inlineStr"/>
+      <c r="H33" s="8" t="inlineStr"/>
+      <c r="I33" s="8" t="inlineStr"/>
+      <c r="J33" s="8" t="inlineStr"/>
+      <c r="K33" s="8" t="inlineStr"/>
+      <c r="L33" s="8" t="inlineStr"/>
+      <c r="M33" s="8" t="inlineStr">
         <is>
           <t>M5</t>
         </is>
       </c>
+      <c r="N33" s="8" t="inlineStr"/>
+      <c r="O33" s="8" t="inlineStr"/>
+      <c r="P33" s="8" t="inlineStr"/>
+      <c r="Q33" s="8" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="D34" t="inlineStr">
+      <c r="A34" s="8" t="inlineStr"/>
+      <c r="B34" s="8" t="inlineStr"/>
+      <c r="C34" s="8" t="inlineStr"/>
+      <c r="D34" s="8" t="inlineStr">
         <is>
           <t>X0</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="E34" s="8" t="inlineStr">
         <is>
           <t>Y0</t>
         </is>
       </c>
+      <c r="F34" s="8" t="inlineStr"/>
+      <c r="G34" s="8" t="inlineStr"/>
+      <c r="H34" s="8" t="inlineStr"/>
+      <c r="I34" s="8" t="inlineStr"/>
+      <c r="J34" s="8" t="inlineStr"/>
+      <c r="K34" s="8" t="inlineStr"/>
+      <c r="L34" s="8" t="inlineStr"/>
+      <c r="M34" s="8" t="inlineStr"/>
+      <c r="N34" s="8" t="inlineStr"/>
+      <c r="O34" s="8" t="inlineStr"/>
+      <c r="P34" s="8" t="inlineStr"/>
+      <c r="Q34" s="8" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="M35" t="inlineStr">
+      <c r="A35" s="8" t="inlineStr"/>
+      <c r="B35" s="8" t="inlineStr"/>
+      <c r="C35" s="8" t="inlineStr"/>
+      <c r="D35" s="8" t="inlineStr"/>
+      <c r="E35" s="8" t="inlineStr"/>
+      <c r="F35" s="8" t="inlineStr"/>
+      <c r="G35" s="8" t="inlineStr"/>
+      <c r="H35" s="8" t="inlineStr"/>
+      <c r="I35" s="8" t="inlineStr"/>
+      <c r="J35" s="8" t="inlineStr"/>
+      <c r="K35" s="8" t="inlineStr"/>
+      <c r="L35" s="8" t="inlineStr"/>
+      <c r="M35" s="8" t="inlineStr">
         <is>
           <t>M30</t>
         </is>
       </c>
+      <c r="N35" s="8" t="inlineStr"/>
+      <c r="O35" s="8" t="inlineStr"/>
+      <c r="P35" s="8" t="inlineStr"/>
+      <c r="Q35" s="8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -9,7 +9,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Sheet1'!5:1</definedName>
+  </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -29,12 +31,15 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="mediumGray"/>
     </fill>
   </fills>
   <borders count="8">
@@ -118,7 +123,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -1488,5 +1493,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" fitToHeight="0" fitToWidth="1"/>
 </worksheet>
 </file>